--- a/medicine/Enfance/Loris_Malaguzzi/Loris_Malaguzzi.xlsx
+++ b/medicine/Enfance/Loris_Malaguzzi/Loris_Malaguzzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loris Malaguzzi né le 23 février 1920 à Correggio dans la Province de Reggio d'Émilie, et mort le 30 janvier 1994 à Reggio d'Émilie, est un enseignant et pédagogue italien.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loris Malaguzzi naît le 23 février 1920 à Correggio[1]
-Il étudie à l'Université d'Urbino, où il obtient un diplôme en pédagogie, et au Centre national de recherche de Rome, où il obtient un diplôme en psychologie[2]. 
-En 1946 il s'implique dans la création d'écoles maternelles organisées et gérées par les parents[2]. En 1980 il fonde le Gruppo Nazionale Nidi-Infanzia[2]. 
-En 1992, il reçoit le prix Lego, décerné à des individus et des instituts, qui ont apporté une contribution extraordinaire à l'amélioration de la vie des enfants[1]. À Chicago en 1993, il est récompensé par la Fondation Kohl pour son travail pédagogique[1].
-Il se marie en 1944[3] à Nilde Bonaccini (morte en 1993), avec qui il a un fils[1].
-Loris Malaguzzi meurt le 30 janvier 1994 à Reggio d'Émilie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loris Malaguzzi naît le 23 février 1920 à Correggio
+Il étudie à l'Université d'Urbino, où il obtient un diplôme en pédagogie, et au Centre national de recherche de Rome, où il obtient un diplôme en psychologie. 
+En 1946 il s'implique dans la création d'écoles maternelles organisées et gérées par les parents. En 1980 il fonde le Gruppo Nazionale Nidi-Infanzia. 
+En 1992, il reçoit le prix Lego, décerné à des individus et des instituts, qui ont apporté une contribution extraordinaire à l'amélioration de la vie des enfants. À Chicago en 1993, il est récompensé par la Fondation Kohl pour son travail pédagogique.
+Il se marie en 1944 à Nilde Bonaccini (morte en 1993), avec qui il a un fils.
+Loris Malaguzzi meurt le 30 janvier 1994 à Reggio d'Émilie.
 Malaguzzi était très intéressé par beaucoup de choses, par exemple le théâtre, les arts, le cinéma, les sports, la politique, l'éducation, etc.[réf. nécessaire] 
 </t>
         </is>
